--- a/curator-annotations/Phenotype_Annotations/Phenotype_annotation_SEP_21_2023.xlsx
+++ b/curator-annotations/Phenotype_Annotations/Phenotype_annotation_SEP_21_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rjd727/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC7C5DE-C5AC-8545-9867-07A76CDBB094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FBB73B-6D63-B645-A579-D407455A182A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="3480" windowWidth="35840" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <t>in the presence of pathogenic bacterium</t>
   </si>
   <si>
-    <t>PMID:37372157</t>
+    <t>PMID:37676004</t>
   </si>
 </sst>
 </file>
